--- a/HybridActiTimeProject/data/ActitimeTestData.xlsx
+++ b/HybridActiTimeProject/data/ActitimeTestData.xlsx
@@ -72,16 +72,16 @@
     <t>lastname</t>
   </si>
   <si>
-    <t>Rohit_66</t>
-  </si>
-  <si>
     <t>man</t>
   </si>
   <si>
-    <t>Virat</t>
-  </si>
-  <si>
-    <t>Kohli</t>
+    <t>Rohit_664</t>
+  </si>
+  <si>
+    <t>Viratttt</t>
+  </si>
+  <si>
+    <t>Kohliiii</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,10 +585,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
